--- a/data/trans_orig/P39A3_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P39A3_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD0E0A92-B41B-445F-BD92-96F3122975B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5702EE9F-2A3C-4DF8-9DC0-5756E1FD1353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{86AEE15F-C08A-4038-9058-A65A8E36AF2C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{76E011D2-22E9-4A73-BBB0-D46113BB2A09}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="183">
   <si>
     <t>Población según si diría que estar con dolor o malestar en el pecho es un síntoma de que a alguien le está dando un ataque al corazón en 2023 (Tasa respuesta: 92,99%)</t>
   </si>
@@ -74,472 +74,478 @@
     <t>95,48%</t>
   </si>
   <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
   </si>
   <si>
     <t>98,07%</t>
   </si>
   <si>
-    <t>96,68%</t>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
   </si>
   <si>
     <t>99,01%</t>
   </si>
   <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
   </si>
   <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
+    <t>3,57%</t>
   </si>
   <si>
     <t>2,07%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
   </si>
   <si>
     <t>2,04%</t>
   </si>
   <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
   </si>
   <si>
     <t>91,54%</t>
   </si>
   <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
   </si>
   <si>
     <t>90,72%</t>
   </si>
   <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
   </si>
   <si>
     <t>91,11%</t>
@@ -554,19 +560,19 @@
     <t>8,46%</t>
   </si>
   <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
   </si>
   <si>
     <t>9,28%</t>
   </si>
   <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
   </si>
   <si>
     <t>8,89%</t>
@@ -990,7 +996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACB1CCA-7FB6-46E4-ABBB-6DB338B2C63E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E17A90E5-5872-44D9-8067-9C060E62E48B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2205,7 +2211,7 @@
         <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>967</v>
@@ -2214,28 +2220,28 @@
         <v>790128</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>1647</v>
       </c>
       <c r="N25" s="7">
-        <v>1557663</v>
+        <v>1557664</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2250,13 +2256,13 @@
         <v>15742</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>42</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>22</v>
@@ -2265,13 +2271,13 @@
         <v>16722</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>35</v>
@@ -2280,13 +2286,13 @@
         <v>32464</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2328,7 +2334,7 @@
         <v>1682</v>
       </c>
       <c r="N27" s="7">
-        <v>1590127</v>
+        <v>1590128</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -2354,13 +2360,13 @@
         <v>2902699</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>4452</v>
@@ -2369,13 +2375,13 @@
         <v>3225081</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>7285</v>
@@ -2384,13 +2390,13 @@
         <v>6127779</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2405,13 +2411,13 @@
         <v>268138</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>532</v>
@@ -2420,13 +2426,13 @@
         <v>329719</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>845</v>
@@ -2435,13 +2441,13 @@
         <v>597857</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,7 +2503,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P39A3_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P39A3_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5702EE9F-2A3C-4DF8-9DC0-5756E1FD1353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{605DA6B1-91F0-491B-B108-A492C3F05865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{76E011D2-22E9-4A73-BBB0-D46113BB2A09}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CB1956B4-7504-4C92-8BDE-AA17FE753168}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -996,7 +996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E17A90E5-5872-44D9-8067-9C060E62E48B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1ABC4B0-EEFD-41C8-A46E-1D948E1204C1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P39A3_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P39A3_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{605DA6B1-91F0-491B-B108-A492C3F05865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6235F9E-B484-4C64-9379-A74AA6216466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CB1956B4-7504-4C92-8BDE-AA17FE753168}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EFB9B5E5-32CC-45F9-A431-4653A00D7356}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
   <si>
     <t>Población según si diría que estar con dolor o malestar en el pecho es un síntoma de que a alguien le está dando un ataque al corazón en 2023 (Tasa respuesta: 92,99%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>95,48%</t>
   </si>
   <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
   </si>
   <si>
     <t>98,07%</t>
   </si>
   <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
   </si>
   <si>
     <t>96,8%</t>
   </si>
   <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>4,52%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
   </si>
   <si>
     <t>1,93%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
   </si>
   <si>
     <t>3,2%</t>
   </si>
   <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>97,7%</t>
   </si>
   <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
   </si>
   <si>
     <t>96,22%</t>
   </si>
   <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
   </si>
   <si>
     <t>96,94%</t>
   </si>
   <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
   </si>
   <si>
     <t>2,3%</t>
   </si>
   <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
   </si>
   <si>
     <t>3,78%</t>
   </si>
   <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
   </si>
   <si>
     <t>3,06%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,55 +194,55 @@
     <t>94,34%</t>
   </si>
   <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
   </si>
   <si>
     <t>97,08%</t>
   </si>
   <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
   </si>
   <si>
     <t>95,79%</t>
   </si>
   <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
   </si>
   <si>
     <t>5,66%</t>
   </si>
   <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
   </si>
   <si>
     <t>2,92%</t>
   </si>
   <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
   </si>
   <si>
     <t>4,21%</t>
   </si>
   <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -251,16 +251,16 @@
     <t>97,85%</t>
   </si>
   <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
   </si>
   <si>
     <t>92,54%</t>
   </si>
   <si>
-    <t>77,17%</t>
+    <t>79,74%</t>
   </si>
   <si>
     <t>97,3%</t>
@@ -269,19 +269,19 @@
     <t>94,8%</t>
   </si>
   <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
   </si>
   <si>
     <t>2,15%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
   </si>
   <si>
     <t>7,46%</t>
@@ -290,16 +290,16 @@
     <t>2,7%</t>
   </si>
   <si>
-    <t>22,83%</t>
+    <t>20,26%</t>
   </si>
   <si>
     <t>5,2%</t>
   </si>
   <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -308,55 +308,55 @@
     <t>63,78%</t>
   </si>
   <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
   </si>
   <si>
     <t>58,52%</t>
   </si>
   <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
   </si>
   <si>
     <t>60,92%</t>
   </si>
   <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
   </si>
   <si>
     <t>36,22%</t>
   </si>
   <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
   </si>
   <si>
     <t>41,48%</t>
   </si>
   <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
   </si>
   <si>
     <t>39,08%</t>
   </si>
   <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -365,55 +365,55 @@
     <t>90,63%</t>
   </si>
   <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
   </si>
   <si>
     <t>93,7%</t>
   </si>
   <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
   </si>
   <si>
     <t>92,14%</t>
   </si>
   <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
   </si>
   <si>
     <t>9,37%</t>
   </si>
   <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
   </si>
   <si>
     <t>6,3%</t>
   </si>
   <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
   </si>
   <si>
     <t>7,86%</t>
   </si>
   <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -422,55 +422,55 @@
     <t>81,45%</t>
   </si>
   <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
   </si>
   <si>
     <t>81,88%</t>
   </si>
   <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
   </si>
   <si>
     <t>81,69%</t>
   </si>
   <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
   </si>
   <si>
     <t>18,55%</t>
   </si>
   <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
   </si>
   <si>
     <t>18,12%</t>
   </si>
   <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
   </si>
   <si>
     <t>18,31%</t>
   </si>
   <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -479,73 +479,67 @@
     <t>97,99%</t>
   </si>
   <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
+    <t>96,17%</t>
   </si>
   <si>
     <t>97,93%</t>
   </si>
   <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
   </si>
   <si>
     <t>97,96%</t>
   </si>
   <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
   </si>
   <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
+    <t>3,83%</t>
   </si>
   <si>
     <t>2,07%</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
   </si>
   <si>
     <t>2,04%</t>
   </si>
   <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
   </si>
   <si>
     <t>91,54%</t>
   </si>
   <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
   </si>
   <si>
     <t>90,72%</t>
   </si>
   <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
   </si>
   <si>
     <t>91,11%</t>
@@ -560,19 +554,19 @@
     <t>8,46%</t>
   </si>
   <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
   </si>
   <si>
     <t>9,28%</t>
   </si>
   <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
   </si>
   <si>
     <t>8,89%</t>
@@ -996,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1ABC4B0-EEFD-41C8-A46E-1D948E1204C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46A4360F-0A42-4AEC-9222-6AD402EFD4A3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2211,7 +2205,7 @@
         <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>148</v>
+        <v>34</v>
       </c>
       <c r="H25" s="7">
         <v>967</v>
@@ -2220,28 +2214,28 @@
         <v>790128</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>1647</v>
       </c>
       <c r="N25" s="7">
-        <v>1557664</v>
+        <v>1557663</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2256,13 +2250,13 @@
         <v>15742</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>22</v>
@@ -2271,13 +2265,13 @@
         <v>16722</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>35</v>
@@ -2286,13 +2280,13 @@
         <v>32464</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2334,7 +2328,7 @@
         <v>1682</v>
       </c>
       <c r="N27" s="7">
-        <v>1590128</v>
+        <v>1590127</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -2360,13 +2354,13 @@
         <v>2902699</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>4452</v>
@@ -2375,13 +2369,13 @@
         <v>3225081</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>7285</v>
@@ -2390,13 +2384,13 @@
         <v>6127779</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2411,13 +2405,13 @@
         <v>268138</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>532</v>
@@ -2426,13 +2420,13 @@
         <v>329719</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>845</v>
@@ -2441,13 +2435,13 @@
         <v>597857</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,7 +2497,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P39A3_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P39A3_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6235F9E-B484-4C64-9379-A74AA6216466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9AD062E-C4E9-4A5A-9005-59D014B60982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EFB9B5E5-32CC-45F9-A431-4653A00D7356}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{646827AD-9FFF-4892-A37D-06D2C5543A71}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="177">
   <si>
     <t>Población según si diría que estar con dolor o malestar en el pecho es un síntoma de que a alguien le está dando un ataque al corazón en 2023 (Tasa respuesta: 92,99%)</t>
   </si>
@@ -71,511 +71,499 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
     <t>95,48%</t>
   </si>
   <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
   </si>
   <si>
     <t>4,52%</t>
   </si>
   <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
     <t>Cordoba</t>
   </si>
   <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
   </si>
   <si>
     <t>98,43%</t>
   </si>
   <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
   </si>
   <si>
     <t>1,57%</t>
   </si>
   <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -990,7 +978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46A4360F-0A42-4AEC-9222-6AD402EFD4A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C464FD-D30F-4DD1-80BF-C06EB4552B55}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1111,7 +1099,7 @@
         <v>319</v>
       </c>
       <c r="D4" s="7">
-        <v>247871</v>
+        <v>296267</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1126,7 +1114,7 @@
         <v>524</v>
       </c>
       <c r="I4" s="7">
-        <v>262489</v>
+        <v>278490</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1141,7 +1129,7 @@
         <v>843</v>
       </c>
       <c r="N4" s="7">
-        <v>510360</v>
+        <v>574757</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1162,7 +1150,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="7">
-        <v>11722</v>
+        <v>14445</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1177,7 +1165,7 @@
         <v>11</v>
       </c>
       <c r="I5" s="7">
-        <v>5163</v>
+        <v>5366</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1192,7 +1180,7 @@
         <v>22</v>
       </c>
       <c r="N5" s="7">
-        <v>16885</v>
+        <v>19811</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1213,7 +1201,7 @@
         <v>330</v>
       </c>
       <c r="D6" s="7">
-        <v>259593</v>
+        <v>310712</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1228,7 +1216,7 @@
         <v>535</v>
       </c>
       <c r="I6" s="7">
-        <v>267652</v>
+        <v>283856</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1243,7 +1231,7 @@
         <v>865</v>
       </c>
       <c r="N6" s="7">
-        <v>527245</v>
+        <v>594568</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1266,7 +1254,7 @@
         <v>363</v>
       </c>
       <c r="D7" s="7">
-        <v>499869</v>
+        <v>499427</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1281,7 +1269,7 @@
         <v>664</v>
       </c>
       <c r="I7" s="7">
-        <v>516920</v>
+        <v>480170</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1296,7 +1284,7 @@
         <v>1027</v>
       </c>
       <c r="N7" s="7">
-        <v>1016790</v>
+        <v>979597</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1317,7 +1305,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="7">
-        <v>11778</v>
+        <v>11779</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1332,7 +1320,7 @@
         <v>27</v>
       </c>
       <c r="I8" s="7">
-        <v>20332</v>
+        <v>19149</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1347,7 +1335,7 @@
         <v>38</v>
       </c>
       <c r="N8" s="7">
-        <v>32109</v>
+        <v>30928</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1368,7 +1356,7 @@
         <v>374</v>
       </c>
       <c r="D9" s="7">
-        <v>511647</v>
+        <v>511206</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1383,7 +1371,7 @@
         <v>691</v>
       </c>
       <c r="I9" s="7">
-        <v>537252</v>
+        <v>499319</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1398,7 +1386,7 @@
         <v>1065</v>
       </c>
       <c r="N9" s="7">
-        <v>1048899</v>
+        <v>1010525</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1421,7 +1409,7 @@
         <v>313</v>
       </c>
       <c r="D10" s="7">
-        <v>286327</v>
+        <v>281281</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1436,7 +1424,7 @@
         <v>475</v>
       </c>
       <c r="I10" s="7">
-        <v>331871</v>
+        <v>310776</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1451,7 +1439,7 @@
         <v>788</v>
       </c>
       <c r="N10" s="7">
-        <v>618197</v>
+        <v>592058</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1472,7 +1460,7 @@
         <v>23</v>
       </c>
       <c r="D11" s="7">
-        <v>17182</v>
+        <v>16633</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1487,7 +1475,7 @@
         <v>15</v>
       </c>
       <c r="I11" s="7">
-        <v>9979</v>
+        <v>9443</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1502,7 +1490,7 @@
         <v>38</v>
       </c>
       <c r="N11" s="7">
-        <v>27161</v>
+        <v>26076</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1523,7 +1511,7 @@
         <v>336</v>
       </c>
       <c r="D12" s="7">
-        <v>303509</v>
+        <v>297914</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1538,7 +1526,7 @@
         <v>490</v>
       </c>
       <c r="I12" s="7">
-        <v>341850</v>
+        <v>320219</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1553,7 +1541,7 @@
         <v>826</v>
       </c>
       <c r="N12" s="7">
-        <v>645358</v>
+        <v>618134</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1576,7 +1564,7 @@
         <v>231</v>
       </c>
       <c r="D13" s="7">
-        <v>253914</v>
+        <v>243994</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1591,7 +1579,7 @@
         <v>475</v>
       </c>
       <c r="I13" s="7">
-        <v>323237</v>
+        <v>299132</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1606,7 +1594,7 @@
         <v>706</v>
       </c>
       <c r="N13" s="7">
-        <v>577151</v>
+        <v>543127</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1627,7 +1615,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="7">
-        <v>5575</v>
+        <v>5326</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1642,7 +1630,7 @@
         <v>14</v>
       </c>
       <c r="I14" s="7">
-        <v>26059</v>
+        <v>79700</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1657,7 +1645,7 @@
         <v>21</v>
       </c>
       <c r="N14" s="7">
-        <v>31633</v>
+        <v>85025</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1678,7 +1666,7 @@
         <v>238</v>
       </c>
       <c r="D15" s="7">
-        <v>259489</v>
+        <v>249320</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1693,7 +1681,7 @@
         <v>489</v>
       </c>
       <c r="I15" s="7">
-        <v>349296</v>
+        <v>378832</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1708,7 +1696,7 @@
         <v>727</v>
       </c>
       <c r="N15" s="7">
-        <v>608784</v>
+        <v>628152</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1731,7 +1719,7 @@
         <v>172</v>
       </c>
       <c r="D16" s="7">
-        <v>123256</v>
+        <v>111796</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1746,7 +1734,7 @@
         <v>281</v>
       </c>
       <c r="I16" s="7">
-        <v>134516</v>
+        <v>120427</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -1761,7 +1749,7 @@
         <v>453</v>
       </c>
       <c r="N16" s="7">
-        <v>257772</v>
+        <v>232224</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -1782,7 +1770,7 @@
         <v>102</v>
       </c>
       <c r="D17" s="7">
-        <v>69990</v>
+        <v>63806</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -1797,7 +1785,7 @@
         <v>207</v>
       </c>
       <c r="I17" s="7">
-        <v>95342</v>
+        <v>86384</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -1812,7 +1800,7 @@
         <v>309</v>
       </c>
       <c r="N17" s="7">
-        <v>165332</v>
+        <v>150190</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -1833,7 +1821,7 @@
         <v>274</v>
       </c>
       <c r="D18" s="7">
-        <v>193246</v>
+        <v>175602</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1848,7 +1836,7 @@
         <v>488</v>
       </c>
       <c r="I18" s="7">
-        <v>229858</v>
+        <v>206811</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1863,7 +1851,7 @@
         <v>762</v>
       </c>
       <c r="N18" s="7">
-        <v>423104</v>
+        <v>382414</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1886,7 +1874,7 @@
         <v>302</v>
       </c>
       <c r="D19" s="7">
-        <v>231174</v>
+        <v>225303</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -1895,37 +1883,37 @@
         <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
         <v>363</v>
       </c>
       <c r="I19" s="7">
-        <v>230549</v>
+        <v>215009</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>665</v>
       </c>
       <c r="N19" s="7">
-        <v>461723</v>
+        <v>440313</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1937,46 +1925,46 @@
         <v>27</v>
       </c>
       <c r="D20" s="7">
-        <v>23903</v>
+        <v>22878</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>27</v>
       </c>
       <c r="I20" s="7">
-        <v>15503</v>
+        <v>14495</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>54</v>
       </c>
       <c r="N20" s="7">
-        <v>39406</v>
+        <v>37372</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1988,7 +1976,7 @@
         <v>329</v>
       </c>
       <c r="D21" s="7">
-        <v>255077</v>
+        <v>248181</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2003,7 +1991,7 @@
         <v>390</v>
       </c>
       <c r="I21" s="7">
-        <v>246052</v>
+        <v>229504</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2018,7 +2006,7 @@
         <v>719</v>
       </c>
       <c r="N21" s="7">
-        <v>501129</v>
+        <v>477685</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2032,7 +2020,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2041,46 +2029,46 @@
         <v>453</v>
       </c>
       <c r="D22" s="7">
-        <v>492752</v>
+        <v>491548</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>703</v>
       </c>
       <c r="I22" s="7">
-        <v>635370</v>
+        <v>692788</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>1156</v>
       </c>
       <c r="N22" s="7">
-        <v>1128123</v>
+        <v>1184336</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2092,46 +2080,46 @@
         <v>119</v>
       </c>
       <c r="D23" s="7">
-        <v>112247</v>
+        <v>111414</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>209</v>
       </c>
       <c r="I23" s="7">
-        <v>140620</v>
+        <v>131375</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>328</v>
       </c>
       <c r="N23" s="7">
-        <v>252866</v>
+        <v>242789</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2143,7 +2131,7 @@
         <v>572</v>
       </c>
       <c r="D24" s="7">
-        <v>604999</v>
+        <v>602962</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2158,7 +2146,7 @@
         <v>912</v>
       </c>
       <c r="I24" s="7">
-        <v>775990</v>
+        <v>824163</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2173,7 +2161,7 @@
         <v>1484</v>
       </c>
       <c r="N24" s="7">
-        <v>1380989</v>
+        <v>1427125</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2187,7 +2175,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2196,46 +2184,46 @@
         <v>680</v>
       </c>
       <c r="D25" s="7">
-        <v>767535</v>
+        <v>850757</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H25" s="7">
         <v>967</v>
       </c>
       <c r="I25" s="7">
-        <v>790128</v>
+        <v>653569</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M25" s="7">
         <v>1647</v>
       </c>
       <c r="N25" s="7">
-        <v>1557663</v>
+        <v>1504326</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P25" s="7" t="s">
-        <v>152</v>
-      </c>
       <c r="Q25" s="7" t="s">
-        <v>153</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2247,46 +2235,46 @@
         <v>13</v>
       </c>
       <c r="D26" s="7">
-        <v>15742</v>
+        <v>13538</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>22</v>
       </c>
       <c r="I26" s="7">
-        <v>16722</v>
+        <v>14049</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>35</v>
       </c>
       <c r="N26" s="7">
-        <v>32464</v>
+        <v>27587</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2298,7 +2286,7 @@
         <v>693</v>
       </c>
       <c r="D27" s="7">
-        <v>783277</v>
+        <v>864295</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -2313,7 +2301,7 @@
         <v>989</v>
       </c>
       <c r="I27" s="7">
-        <v>806850</v>
+        <v>667618</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -2328,7 +2316,7 @@
         <v>1682</v>
       </c>
       <c r="N27" s="7">
-        <v>1590127</v>
+        <v>1531913</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -2351,46 +2339,46 @@
         <v>2833</v>
       </c>
       <c r="D28" s="7">
-        <v>2902699</v>
+        <v>3000375</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="H28" s="7">
         <v>4452</v>
       </c>
       <c r="I28" s="7">
-        <v>3225081</v>
+        <v>3050363</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M28" s="7">
         <v>7285</v>
       </c>
       <c r="N28" s="7">
-        <v>6127779</v>
+        <v>6050738</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2402,46 +2390,46 @@
         <v>313</v>
       </c>
       <c r="D29" s="7">
-        <v>268138</v>
+        <v>259818</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H29" s="7">
         <v>532</v>
       </c>
       <c r="I29" s="7">
-        <v>329719</v>
+        <v>359960</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M29" s="7">
         <v>845</v>
       </c>
       <c r="N29" s="7">
-        <v>597857</v>
+        <v>619778</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2453,7 +2441,7 @@
         <v>3146</v>
       </c>
       <c r="D30" s="7">
-        <v>3170837</v>
+        <v>3260193</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -2468,7 +2456,7 @@
         <v>4984</v>
       </c>
       <c r="I30" s="7">
-        <v>3554800</v>
+        <v>3410323</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -2483,7 +2471,7 @@
         <v>8130</v>
       </c>
       <c r="N30" s="7">
-        <v>6725636</v>
+        <v>6670516</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -2497,7 +2485,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
